--- a/India Steady production FAOSTAT.xlsx
+++ b/India Steady production FAOSTAT.xlsx
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="219">
   <si>
     <t>India</t>
   </si>
@@ -742,6 +742,9 @@
   </si>
   <si>
     <t>Indian people fed/hectare</t>
+  </si>
+  <si>
+    <t>Food security</t>
   </si>
 </sst>
 </file>
@@ -843,7 +846,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -998,6 +1001,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1021,7 +1050,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1108,15 +1137,6 @@
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1140,6 +1160,19 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="7" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="20">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1513,119 +1546,119 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52" t="s">
+      <c r="A1" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
       <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="53">
+      <c r="A2" s="66">
         <v>2010</v>
       </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="65"/>
+      <c r="N2" s="65"/>
+      <c r="O2" s="65"/>
+      <c r="P2" s="65"/>
       <c r="Q2" s="1"/>
     </row>
     <row r="3" spans="1:17" ht="16" customHeight="1">
-      <c r="A3" s="52"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52" t="s">
+      <c r="A3" s="65"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
+      <c r="M3" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="N3" s="52"/>
-      <c r="O3" s="52"/>
-      <c r="P3" s="54">
+      <c r="N3" s="65"/>
+      <c r="O3" s="65"/>
+      <c r="P3" s="67">
         <f>1205625*1000</f>
         <v>1205625000</v>
       </c>
-      <c r="Q3" s="54"/>
+      <c r="Q3" s="67"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="65" t="s">
         <v>121</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="65" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52" t="s">
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65" t="s">
         <v>123</v>
       </c>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="52" t="s">
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="65"/>
+      <c r="L4" s="65"/>
+      <c r="M4" s="65" t="s">
         <v>124</v>
       </c>
-      <c r="N4" s="52"/>
-      <c r="O4" s="52"/>
-      <c r="P4" s="52"/>
+      <c r="N4" s="65"/>
+      <c r="O4" s="65"/>
+      <c r="P4" s="65"/>
       <c r="Q4" s="1"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="52"/>
-      <c r="B5" s="52" t="s">
+      <c r="A5" s="65"/>
+      <c r="B5" s="65" t="s">
         <v>125</v>
       </c>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="52"/>
-      <c r="J5" s="52"/>
-      <c r="K5" s="52"/>
-      <c r="L5" s="52"/>
-      <c r="M5" s="52" t="s">
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="65"/>
+      <c r="M5" s="65" t="s">
         <v>126</v>
       </c>
-      <c r="N5" s="52"/>
+      <c r="N5" s="65"/>
       <c r="O5" s="2" t="s">
         <v>136</v>
       </c>
@@ -1635,7 +1668,7 @@
       <c r="Q5" s="1"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="52"/>
+      <c r="A6" s="65"/>
       <c r="B6" s="2" t="s">
         <v>137</v>
       </c>
@@ -6681,18 +6714,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="M1:P2"/>
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="P3:Q3"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="G4:L4"/>
     <mergeCell ref="M4:P4"/>
     <mergeCell ref="B5:L5"/>
     <mergeCell ref="M5:N5"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="M1:P2"/>
-    <mergeCell ref="A3:L3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="P3:Q3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -6706,10 +6739,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q74"/>
+  <dimension ref="A1:Q75"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6757,7 +6790,7 @@
       <c r="I1" s="46" t="s">
         <v>207</v>
       </c>
-      <c r="J1" s="66" t="s">
+      <c r="J1" s="63" t="s">
         <v>215</v>
       </c>
     </row>
@@ -6768,7 +6801,7 @@
       <c r="B2" s="27">
         <v>1252140000</v>
       </c>
-      <c r="C2" s="55">
+      <c r="C2" s="52">
         <v>6.48</v>
       </c>
       <c r="D2" s="48">
@@ -6779,11 +6812,11 @@
         <v>160218799.29999998</v>
       </c>
       <c r="F2" s="48">
-        <f t="shared" ref="F2:F7" si="0">$C$36/$B$16</f>
+        <f t="shared" ref="F2:F7" si="0">$C$37/$B$17</f>
         <v>1.8163786091907281</v>
       </c>
       <c r="G2" s="48">
-        <f t="shared" ref="G2:G7" si="1">F2*$B$14</f>
+        <f t="shared" ref="G2:G7" si="1">F2*$B$15</f>
         <v>35546529.381862551</v>
       </c>
       <c r="H2" s="48">
@@ -6791,10 +6824,10 @@
         <v>1073764348.8458626</v>
       </c>
       <c r="I2" s="48">
-        <f t="shared" ref="I2:I7" si="3">E2-$B$13</f>
-        <v>0</v>
-      </c>
-      <c r="J2" s="63"/>
+        <f t="shared" ref="I2:I7" si="3">E2-$B$14</f>
+        <v>0</v>
+      </c>
+      <c r="J2" s="60"/>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="47">
@@ -6803,7 +6836,7 @@
       <c r="B3" s="27">
         <v>1252140000</v>
       </c>
-      <c r="C3" s="55">
+      <c r="C3" s="52">
         <v>6.48</v>
       </c>
       <c r="D3" s="48">
@@ -6829,8 +6862,8 @@
         <f t="shared" si="3"/>
         <v>27527272.363963902</v>
       </c>
-      <c r="J3" s="64">
-        <f>I3/$B$13</f>
+      <c r="J3" s="61">
+        <f>I3/$B$14</f>
         <v>0.17181050216473509</v>
       </c>
     </row>
@@ -6841,7 +6874,7 @@
       <c r="B4" s="27">
         <v>1310000000</v>
       </c>
-      <c r="C4" s="55">
+      <c r="C4" s="52">
         <v>6.48</v>
       </c>
       <c r="D4" s="48">
@@ -6867,8 +6900,8 @@
         <f t="shared" si="3"/>
         <v>36456119.005266786</v>
       </c>
-      <c r="J4" s="64">
-        <f t="shared" ref="J4:J7" si="5">I4/$B$13</f>
+      <c r="J4" s="61">
+        <f t="shared" ref="J4:J7" si="5">I4/$B$14</f>
         <v>0.22753958439674057</v>
       </c>
     </row>
@@ -6879,7 +6912,7 @@
       <c r="B5" s="27">
         <v>1400000000</v>
       </c>
-      <c r="C5" s="55">
+      <c r="C5" s="52">
         <v>6.48</v>
       </c>
       <c r="D5" s="48">
@@ -6905,7 +6938,7 @@
         <f t="shared" si="3"/>
         <v>50345007.894155651</v>
       </c>
-      <c r="J5" s="64">
+      <c r="J5" s="61">
         <f t="shared" si="5"/>
         <v>0.31422659584339835</v>
       </c>
@@ -6917,7 +6950,7 @@
       <c r="B6" s="27">
         <v>1500000000</v>
       </c>
-      <c r="C6" s="55">
+      <c r="C6" s="52">
         <v>6.48</v>
       </c>
       <c r="D6" s="48">
@@ -6943,7 +6976,7 @@
         <f t="shared" si="3"/>
         <v>65777106.659587771</v>
       </c>
-      <c r="J6" s="64">
+      <c r="J6" s="61">
         <f t="shared" si="5"/>
         <v>0.41054549745079622</v>
       </c>
@@ -6956,7 +6989,7 @@
       <c r="B7" s="50">
         <v>1700000000</v>
       </c>
-      <c r="C7" s="56">
+      <c r="C7" s="53">
         <v>6.48</v>
       </c>
       <c r="D7" s="51">
@@ -6982,684 +7015,701 @@
         <f t="shared" si="3"/>
         <v>96641304.19045195</v>
       </c>
-      <c r="J7" s="65">
+      <c r="J7" s="62">
         <f t="shared" si="5"/>
         <v>0.60318330066559145</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
+    <row r="8" spans="1:17">
+      <c r="A8" s="68" t="s">
+        <v>218</v>
+      </c>
+      <c r="B8" s="69">
+        <f>H2/B2</f>
+        <v>0.85754336483609073</v>
+      </c>
+      <c r="C8" s="52"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="42"/>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="30" t="s">
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="30" t="s">
         <v>143</v>
       </c>
-      <c r="B10" s="39">
+      <c r="B11" s="39">
         <v>297319000</v>
       </c>
-      <c r="C10" s="61" t="s">
+      <c r="C11" s="58" t="s">
         <v>209</v>
       </c>
-      <c r="D10" s="39"/>
-      <c r="E10" s="20"/>
-      <c r="G10" s="26"/>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="31"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="43"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="20"/>
+      <c r="G11" s="26"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="B12" s="41">
-        <f>B10/100*D55</f>
-        <v>179788799.29999998</v>
-      </c>
+      <c r="A12" s="31"/>
+      <c r="B12" s="41"/>
       <c r="C12" s="34"/>
       <c r="D12" s="42"/>
       <c r="E12" s="43"/>
-      <c r="G12" s="22"/>
-      <c r="I12" s="13"/>
-      <c r="O12" s="12"/>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="B13" s="41">
+        <f>B11/100*D56</f>
+        <v>179788799.29999998</v>
+      </c>
+      <c r="C13" s="34"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="43"/>
+      <c r="G13" s="22"/>
+      <c r="I13" s="13"/>
+      <c r="O13" s="12"/>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="31" t="s">
         <v>171</v>
       </c>
-      <c r="B13" s="37">
-        <f>B12-B33</f>
+      <c r="B14" s="37">
+        <f>B13-B34</f>
         <v>160218799.29999998</v>
       </c>
-      <c r="C13" s="34"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="17"/>
-      <c r="G13" s="10"/>
-      <c r="I13" s="12"/>
-      <c r="O13" s="12"/>
-    </row>
-    <row r="14" spans="1:17">
-      <c r="A14" s="32" t="s">
+      <c r="C14" s="34"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="17"/>
+      <c r="G14" s="10"/>
+      <c r="I14" s="12"/>
+      <c r="O14" s="12"/>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="32" t="s">
         <v>170</v>
       </c>
-      <c r="B14" s="44">
-        <f>B12-B13</f>
+      <c r="B15" s="44">
+        <f>B13-B14</f>
         <v>19570000</v>
       </c>
-      <c r="C14" s="57"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="19"/>
-      <c r="G14" s="13"/>
-    </row>
-    <row r="15" spans="1:17">
-      <c r="B15" s="25"/>
-      <c r="G15" s="12"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="19"/>
+      <c r="G15" s="13"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="30" t="s">
+      <c r="B16" s="25"/>
+      <c r="G16" s="12"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="30" t="s">
         <v>144</v>
       </c>
-      <c r="B16" s="39">
+      <c r="B17" s="39">
         <v>2459</v>
       </c>
-      <c r="C16" s="61" t="s">
+      <c r="C17" s="58" t="s">
         <v>208</v>
       </c>
-      <c r="D16" s="28"/>
-      <c r="E16" s="15"/>
-      <c r="G16" s="13"/>
-    </row>
-    <row r="17" spans="1:9" ht="30">
-      <c r="A17" s="31" t="s">
+      <c r="D17" s="28"/>
+      <c r="E17" s="15"/>
+      <c r="G17" s="13"/>
+    </row>
+    <row r="18" spans="1:9" ht="30">
+      <c r="A18" s="31" t="s">
         <v>145</v>
       </c>
-      <c r="B17" s="41">
+      <c r="B18" s="41">
         <v>2223</v>
       </c>
-      <c r="C17" s="34"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="17"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-    </row>
-    <row r="18" spans="1:9" ht="30">
-      <c r="A18" s="32" t="s">
-        <v>146</v>
-      </c>
-      <c r="B18" s="44">
-        <f>B16-B17</f>
-        <v>236</v>
-      </c>
-      <c r="C18" s="57"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="19"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="17"/>
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
     </row>
-    <row r="19" spans="1:9">
-      <c r="B19" s="25"/>
+    <row r="19" spans="1:9" ht="30">
+      <c r="A19" s="32" t="s">
+        <v>146</v>
+      </c>
+      <c r="B19" s="44">
+        <f>B17-B18</f>
+        <v>236</v>
+      </c>
+      <c r="C19" s="54"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="19"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
     </row>
     <row r="20" spans="1:9">
       <c r="B20" s="25"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-    </row>
-    <row r="21" spans="1:9" ht="45">
-      <c r="A21" s="30" t="s">
+    </row>
+    <row r="21" spans="1:9">
+      <c r="B21" s="25"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+    </row>
+    <row r="22" spans="1:9" ht="45">
+      <c r="A22" s="30" t="s">
         <v>211</v>
       </c>
-      <c r="B21" s="36">
-        <f>B25/B16*B24</f>
+      <c r="B22" s="36">
+        <f>B26/B17*B25</f>
         <v>6.4782431882879221</v>
       </c>
-      <c r="C21" s="61"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="15"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-    </row>
-    <row r="22" spans="1:9" ht="30">
-      <c r="A22" s="32" t="s">
+      <c r="C22" s="58"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="15"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+    </row>
+    <row r="23" spans="1:9" ht="30">
+      <c r="A23" s="32" t="s">
         <v>187</v>
       </c>
-      <c r="B22" s="38">
-        <f>C36/B16</f>
+      <c r="B23" s="38">
+        <f>C37/B17</f>
         <v>1.8163786091907281</v>
       </c>
-      <c r="C22" s="57"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="19"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="C23" s="34"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="17"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-    </row>
-    <row r="24" spans="1:9" ht="30">
-      <c r="A24" s="30" t="s">
+      <c r="C23" s="54"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="19"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="C24" s="34"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="17"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+    </row>
+    <row r="25" spans="1:9" ht="30">
+      <c r="A25" s="30" t="s">
         <v>205</v>
       </c>
-      <c r="B24" s="36">
+      <c r="B25" s="36">
         <v>5.9</v>
       </c>
-      <c r="C24" s="28" t="s">
+      <c r="C25" s="28" t="s">
         <v>212</v>
       </c>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="15"/>
-    </row>
-    <row r="25" spans="1:9" ht="30">
-      <c r="A25" s="31" t="s">
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="15"/>
+    </row>
+    <row r="26" spans="1:9" ht="30">
+      <c r="A26" s="31" t="s">
         <v>204</v>
       </c>
-      <c r="B25" s="41">
+      <c r="B26" s="41">
         <v>2700</v>
       </c>
-      <c r="C25" s="29" t="s">
+      <c r="C26" s="29" t="s">
         <v>213</v>
       </c>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="17"/>
-      <c r="I25" s="11"/>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="32"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="38" t="s">
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="17"/>
+      <c r="I26" s="11"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="32"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="38" t="s">
         <v>214</v>
       </c>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="19"/>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="I27" s="12"/>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="30" t="s">
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="19"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="I28" s="12"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="30" t="s">
         <v>161</v>
       </c>
-      <c r="B29" s="40">
+      <c r="B30" s="40">
         <v>12040000</v>
       </c>
-      <c r="C29" s="61" t="s">
+      <c r="C30" s="58" t="s">
         <v>181</v>
       </c>
-      <c r="D29" s="14"/>
-      <c r="E29" s="15"/>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="31"/>
-      <c r="B30" s="27">
-        <v>3700000</v>
-      </c>
-      <c r="C30" s="34"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="17"/>
-      <c r="H30" s="11"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="15"/>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="31"/>
       <c r="B31" s="27">
-        <v>1500000</v>
+        <v>3700000</v>
       </c>
       <c r="C31" s="34"/>
       <c r="D31" s="16"/>
       <c r="E31" s="17"/>
+      <c r="H31" s="11"/>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="31"/>
       <c r="B32" s="27">
-        <v>2330000</v>
+        <v>1500000</v>
       </c>
       <c r="C32" s="34"/>
       <c r="D32" s="16"/>
       <c r="E32" s="17"/>
-      <c r="H32" s="12"/>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="32" t="s">
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="31"/>
+      <c r="B33" s="27">
+        <v>2330000</v>
+      </c>
+      <c r="C33" s="34"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="17"/>
+      <c r="H33" s="12"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="32" t="s">
         <v>182</v>
       </c>
-      <c r="B33" s="50">
-        <f>SUM(B29:B32)</f>
+      <c r="B34" s="50">
+        <f>SUM(B30:B33)</f>
         <v>19570000</v>
       </c>
-      <c r="C33" s="57"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="19"/>
-    </row>
-    <row r="35" spans="1:5" ht="30">
-      <c r="A35" s="30"/>
-      <c r="B35" s="15" t="s">
+      <c r="C34" s="54"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="19"/>
+    </row>
+    <row r="36" spans="1:8" ht="30">
+      <c r="A36" s="30"/>
+      <c r="B36" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="C35" s="24" t="s">
+      <c r="C36" s="24" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="31" t="s">
+    <row r="37" spans="1:8">
+      <c r="A37" s="31" t="s">
         <v>172</v>
       </c>
-      <c r="B36" s="21">
+      <c r="B37" s="21">
         <f>1100000/0.4/1000</f>
         <v>2750</v>
       </c>
-      <c r="C36" s="35">
-        <f>B36*D68+B37*D67+B38*D69+B39*D70</f>
+      <c r="C37" s="35">
+        <f>B37*D69+B38*D68+B39*D70+B40*D71</f>
         <v>4466.4750000000004</v>
       </c>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="31" t="s">
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="31" t="s">
         <v>173</v>
       </c>
-      <c r="B37" s="21">
+      <c r="B38" s="21">
         <f>3500000/0.4/1000</f>
         <v>8750</v>
       </c>
-      <c r="C37" s="34" t="s">
+      <c r="C38" s="34" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="31" t="s">
+    <row r="39" spans="1:8">
+      <c r="A39" s="31" t="s">
         <v>174</v>
       </c>
-      <c r="B38" s="21">
+      <c r="B39" s="21">
         <f>1400000/0.4/1000</f>
         <v>3500</v>
       </c>
-      <c r="C38" s="24">
-        <f>C36/B16</f>
+      <c r="C39" s="24">
+        <f>C37/B17</f>
         <v>1.8163786091907281</v>
       </c>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="58" t="s">
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="55" t="s">
         <v>183</v>
       </c>
-      <c r="B39" s="21">
+      <c r="B40" s="21">
         <f>3000000/0.4/1000</f>
         <v>7500</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="59" t="s">
+    <row r="41" spans="1:8">
+      <c r="A41" s="56" t="s">
         <v>180</v>
       </c>
-      <c r="B40" s="60"/>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="35"/>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="30"/>
-      <c r="B42" s="14" t="s">
+      <c r="B41" s="57"/>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="35"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="30"/>
+      <c r="B43" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="C42" s="33"/>
-      <c r="D42" s="15"/>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="31" t="s">
+      <c r="C43" s="33"/>
+      <c r="D43" s="15"/>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="31" t="s">
         <v>147</v>
       </c>
-      <c r="B43" s="16" t="s">
+      <c r="B44" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="C43" s="34" t="s">
+      <c r="C44" s="34" t="s">
         <v>149</v>
       </c>
-      <c r="D43" s="17" t="s">
+      <c r="D44" s="17" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="30">
-      <c r="A44" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B44" s="16" t="s">
+    <row r="45" spans="1:8" ht="30">
+      <c r="A45" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" s="16" t="s">
         <v>151</v>
-      </c>
-      <c r="C44" s="34" t="s">
-        <v>152</v>
-      </c>
-      <c r="D44" s="17">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="30">
-      <c r="A45" s="31"/>
-      <c r="B45" s="16" t="s">
-        <v>154</v>
       </c>
       <c r="C45" s="34" t="s">
         <v>152</v>
       </c>
       <c r="D45" s="17">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="30">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="30">
       <c r="A46" s="31"/>
       <c r="B46" s="16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C46" s="34" t="s">
         <v>152</v>
       </c>
       <c r="D46" s="17">
-        <v>5.39</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="30">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="30">
       <c r="A47" s="31"/>
       <c r="B47" s="16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C47" s="34" t="s">
         <v>152</v>
       </c>
       <c r="D47" s="17">
-        <v>1.29</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>5.39</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="30">
       <c r="A48" s="31"/>
       <c r="B48" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="C48" s="34"/>
-      <c r="D48" s="17"/>
+        <v>156</v>
+      </c>
+      <c r="C48" s="34" t="s">
+        <v>152</v>
+      </c>
+      <c r="D48" s="17">
+        <v>1.29</v>
+      </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="31"/>
-      <c r="B49" s="16"/>
+      <c r="B49" s="16" t="s">
+        <v>157</v>
+      </c>
       <c r="C49" s="34"/>
       <c r="D49" s="17"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="31" t="s">
+      <c r="A50" s="31"/>
+      <c r="B50" s="16"/>
+      <c r="C50" s="34"/>
+      <c r="D50" s="17"/>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="31" t="s">
         <v>158</v>
       </c>
-      <c r="B50" s="34" t="s">
+      <c r="B51" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="C50" s="34" t="s">
+      <c r="C51" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="D50" s="17"/>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="59" t="s">
+      <c r="D51" s="17"/>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="56" t="s">
         <v>216</v>
       </c>
-      <c r="B51" s="57"/>
-      <c r="C51" s="57"/>
-      <c r="D51" s="19"/>
-    </row>
-    <row r="53" spans="1:4" ht="30">
-      <c r="A53" s="30" t="s">
+      <c r="B52" s="54"/>
+      <c r="C52" s="54"/>
+      <c r="D52" s="19"/>
+    </row>
+    <row r="54" spans="1:4" ht="30">
+      <c r="A54" s="30" t="s">
         <v>178</v>
       </c>
-      <c r="B53" s="14"/>
-      <c r="C53" s="33"/>
-      <c r="D53" s="15"/>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="31" t="s">
-        <v>147</v>
-      </c>
-      <c r="B54" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="C54" s="34" t="s">
-        <v>149</v>
-      </c>
-      <c r="D54" s="17" t="s">
-        <v>150</v>
-      </c>
+      <c r="B54" s="14"/>
+      <c r="C54" s="33"/>
+      <c r="D54" s="15"/>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="31" t="s">
-        <v>0</v>
+        <v>147</v>
       </c>
       <c r="B55" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="C55" s="34" t="s">
+        <v>149</v>
+      </c>
+      <c r="D55" s="17" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B56" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="C55" s="34" t="s">
+      <c r="C56" s="34" t="s">
         <v>164</v>
       </c>
-      <c r="D55" s="17">
+      <c r="D56" s="17">
         <v>60.47</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="31"/>
-      <c r="B56" s="16" t="s">
-        <v>165</v>
-      </c>
-      <c r="C56" s="34" t="s">
-        <v>166</v>
-      </c>
-      <c r="D56" s="17">
-        <v>87.51</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="31"/>
       <c r="B57" s="16" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C57" s="34" t="s">
         <v>166</v>
       </c>
       <c r="D57" s="17">
-        <v>6.84</v>
+        <v>87.51</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="31"/>
       <c r="B58" s="16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C58" s="34" t="s">
         <v>166</v>
       </c>
       <c r="D58" s="17">
-        <v>5.64</v>
+        <v>6.84</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="31"/>
       <c r="B59" s="16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C59" s="34" t="s">
         <v>166</v>
       </c>
       <c r="D59" s="17">
+        <v>5.64</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="31"/>
+      <c r="B60" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="C60" s="34" t="s">
+        <v>166</v>
+      </c>
+      <c r="D60" s="17">
         <v>37.119999999999997</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="31" t="s">
+    <row r="61" spans="1:4">
+      <c r="A61" s="31" t="s">
         <v>153</v>
       </c>
-      <c r="B60" s="16" t="s">
+      <c r="B61" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="C60" s="34"/>
-      <c r="D60" s="17"/>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="31"/>
-      <c r="B61" s="16"/>
       <c r="C61" s="34"/>
       <c r="D61" s="17"/>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="31" t="s">
+      <c r="A62" s="31"/>
+      <c r="B62" s="16"/>
+      <c r="C62" s="34"/>
+      <c r="D62" s="17"/>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="31" t="s">
         <v>158</v>
       </c>
-      <c r="B62" s="34" t="s">
+      <c r="B63" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="C62" s="34" t="s">
+      <c r="C63" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="D62" s="17"/>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" s="59" t="s">
+      <c r="D63" s="17"/>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="56" t="s">
         <v>210</v>
       </c>
-      <c r="B63" s="57"/>
-      <c r="C63" s="57"/>
-      <c r="D63" s="19"/>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64" s="67"/>
-      <c r="B64" s="34"/>
-      <c r="C64" s="34"/>
-      <c r="D64" s="16"/>
-    </row>
-    <row r="65" spans="1:4" ht="30">
-      <c r="A65" s="30" t="s">
+      <c r="B64" s="54"/>
+      <c r="C64" s="54"/>
+      <c r="D64" s="19"/>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="64"/>
+      <c r="B65" s="34"/>
+      <c r="C65" s="34"/>
+      <c r="D65" s="16"/>
+    </row>
+    <row r="66" spans="1:4" ht="30">
+      <c r="A66" s="30" t="s">
         <v>177</v>
       </c>
-      <c r="B65" s="14"/>
-      <c r="C65" s="33"/>
-      <c r="D65" s="15"/>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66" s="31" t="s">
-        <v>147</v>
-      </c>
-      <c r="B66" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="C66" s="34" t="s">
-        <v>149</v>
-      </c>
-      <c r="D66" s="17" t="s">
-        <v>150</v>
-      </c>
+      <c r="B66" s="14"/>
+      <c r="C66" s="33"/>
+      <c r="D66" s="15"/>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="31" t="s">
-        <v>0</v>
+        <v>147</v>
       </c>
       <c r="B67" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="C67" s="34" t="s">
+        <v>149</v>
+      </c>
+      <c r="D67" s="17" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B68" s="16" t="s">
         <v>151</v>
-      </c>
-      <c r="C67" s="34" t="s">
-        <v>176</v>
-      </c>
-      <c r="D67" s="62">
-        <v>6.2E-2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68" s="31"/>
-      <c r="B68" s="16" t="s">
-        <v>154</v>
       </c>
       <c r="C68" s="34" t="s">
         <v>176</v>
       </c>
-      <c r="D68" s="62">
-        <v>0.21110000000000001</v>
+      <c r="D68" s="59">
+        <v>6.2E-2</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="31"/>
       <c r="B69" s="16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C69" s="34" t="s">
         <v>176</v>
       </c>
-      <c r="D69" s="62">
-        <v>0.63170000000000004</v>
+      <c r="D69" s="59">
+        <v>0.21110000000000001</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="31"/>
       <c r="B70" s="16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C70" s="34" t="s">
         <v>176</v>
       </c>
-      <c r="D70" s="62">
+      <c r="D70" s="59">
+        <v>0.63170000000000004</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="31"/>
+      <c r="B71" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="C71" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="D71" s="59">
         <v>0.151</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
-      <c r="A71" s="31" t="s">
+    <row r="72" spans="1:4">
+      <c r="A72" s="31" t="s">
         <v>153</v>
       </c>
-      <c r="B71" s="16" t="s">
+      <c r="B72" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="C71" s="34"/>
-      <c r="D71" s="17"/>
-    </row>
-    <row r="72" spans="1:4">
-      <c r="A72" s="31"/>
-      <c r="B72" s="16"/>
       <c r="C72" s="34"/>
       <c r="D72" s="17"/>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="31" t="s">
+      <c r="A73" s="31"/>
+      <c r="B73" s="16"/>
+      <c r="C73" s="34"/>
+      <c r="D73" s="17"/>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="31" t="s">
         <v>158</v>
       </c>
-      <c r="B73" s="34" t="s">
+      <c r="B74" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="C73" s="34" t="s">
+      <c r="C74" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="D73" s="17"/>
-    </row>
-    <row r="74" spans="1:4">
-      <c r="A74" s="59" t="s">
+      <c r="D74" s="17"/>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="56" t="s">
         <v>210</v>
       </c>
-      <c r="B74" s="57"/>
-      <c r="C74" s="57"/>
-      <c r="D74" s="19"/>
+      <c r="B75" s="54"/>
+      <c r="C75" s="54"/>
+      <c r="D75" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A40" r:id="rId1"/>
-    <hyperlink ref="C29" r:id="rId2" location="5."/>
-    <hyperlink ref="C16" r:id="rId3"/>
-    <hyperlink ref="C10" r:id="rId4"/>
-    <hyperlink ref="A51" r:id="rId5"/>
-    <hyperlink ref="A63" r:id="rId6"/>
-    <hyperlink ref="A74" r:id="rId7"/>
+    <hyperlink ref="A41" r:id="rId1"/>
+    <hyperlink ref="C30" r:id="rId2" location="5."/>
+    <hyperlink ref="C17" r:id="rId3"/>
+    <hyperlink ref="C11" r:id="rId4"/>
+    <hyperlink ref="A52" r:id="rId5"/>
+    <hyperlink ref="A64" r:id="rId6"/>
+    <hyperlink ref="A75" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="44" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
